--- a/experiment result cnn/4096_0.6_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/4096_0.6_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1101980946997457</v>
+        <v>0.001450366909454979</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04140431762756182</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0003606476039412552</v>
+        <v>0.01514042655626103</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01088218978326891</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001164243149843352</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.001226289602188314</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001769402457283453</v>
+        <v>0.0002001039999378496</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004603578127737373</v>
+        <v>0.001855161668185156</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04623239154210549</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03621328575069788</v>
+        <v>0.001999598080783723</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0003002518917377416</v>
+        <v>0.0003404579979682756</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000300127894072223</v>
+        <v>0.0007627399244767158</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007176526584845633</v>
+        <v>0.03748269736633646</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.200600156006447e-08</v>
+        <v>0.01823695628637182</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001307360457764972</v>
+        <v>0.0002001639997370472</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08311904776285704</v>
+        <v>6.000599999987997e-05</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006860565391320235</v>
+        <v>0.0008030439067377114</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.001799639171445e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.007425521615332701</v>
+        <v>0.001244627817705448</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0005209088310036013</v>
+        <v>0.000100049999974975</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.002479980710277467</v>
+        <v>0.0008411879936995879</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002400998761931761</v>
+        <v>0.001185465704452247</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00690218312632828</v>
+        <v>0.003773738824647282</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05374128983994732</v>
+        <v>0.0001000179999986795</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0002601919531775007</v>
+        <v>0.03622422790760989</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05565932653672615</v>
+        <v>0.002681114059385316</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001000259903819464</v>
+        <v>0.001705817831682975</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0009846042580479561</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.001734096048999189</v>
+        <v>0.02377866036971188</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0007414394749585683</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009244309962299944</v>
+        <v>0.006476777968404336</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001426378492552453</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01600790268863976</v>
+        <v>0.0002803399988545458</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0001600979393029146</v>
+        <v>0.001221869988816568</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.002895081869639294</v>
+        <v>0.01555848353550638</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0005805196532824444</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0006016594439342335</v>
+        <v>0.0001400739999480578</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.003199678430715e-05</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001400859110764052</v>
+        <v>0.000420221999838393</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.004893874251998155</v>
+        <v>0.007117561957762447</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01522900473132612</v>
+        <v>0.002133958321840378</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00134410218210165</v>
+        <v>0.0001200159999991997</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.000199979985996e-05</v>
+        <v>0.005477374385049634</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02820137800031465</v>
+        <v>0.002998189087027872</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.009883024009201678</v>
+        <v>0.000520999990578192</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002053128941570658</v>
+        <v>0.02099113018613039</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003771745288644815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01729859156710927</v>
+        <v>0.001004803767137046</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.000440723202833902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0004003033634686012</v>
+        <v>0.0006012999842716548</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03170564028987391</v>
+        <v>0.09876668238630826</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02135472659105251</v>
+        <v>0.01045329906504822</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05973104446186771</v>
+        <v>0.01258399310917179</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006009991911683614</v>
+        <v>0.003869945546220854</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.002290490559572017</v>
+        <v>0.01680629288050814</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001146242290261764</v>
+        <v>0.101947486044773</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006807206210580108</v>
+        <v>0.00265992109266368</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01226039752059075</v>
+        <v>0.003799512551341352</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002677157225721892</v>
+        <v>0.0002602179995959573</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.008706190856750198</v>
+        <v>0.04926440903066467</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003762765324518123</v>
+        <v>0.0007208959960088697</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01558500808682231</v>
+        <v>0.003082439344691119</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09944154096015694</v>
+        <v>0.08680992983639675</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.089593584039699</v>
+        <v>0.01523038270350285</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005082675054360183</v>
+        <v>0.1262852272537902</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07881462025253785</v>
+        <v>0.01066098685076795</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0002803033967800658</v>
+        <v>0.01749577975806441</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02809298900432427</v>
+        <v>0.09157885504371624</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04400756477957077</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002446028966072611</v>
+        <v>0.05953455291112054</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04327937272251151</v>
+        <v>0.003226283989155152</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00728615032896765</v>
+        <v>0.003336425506613822</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07467277379011474</v>
+        <v>0.00989947847498826</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01972117779376631</v>
+        <v>0.04720141949064029</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.002296700348251965</v>
+        <v>0.03811233859411477</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.009692368831282083</v>
+        <v>0.003015902893398636</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01460134642728654</v>
+        <v>0.01410055103053707</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.038524667453695</v>
+        <v>0.003534363260974829</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07811922709080571</v>
+        <v>0.1329350972260983</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.001799098144392e-05</v>
+        <v>0.02201031860402388</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03436418165416182</v>
+        <v>0.08101238625996061</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01249826431315716</v>
+        <v>0.01538582625922288</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.00119979957172e-05</v>
+        <v>0.08826899697862392</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03933536094775468</v>
+        <v>0.038621317536729</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0003605267821419313</v>
+        <v>0.01345706072092435</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.009425717528420634</v>
+        <v>0.002830950305491055</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09028737027458443</v>
+        <v>0.1674985338047368</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01463329219332499</v>
+        <v>0.00707633253547686</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.09269009850075431</v>
+        <v>0.01155700271942262</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0252691179743252</v>
+        <v>0.002772862984089784</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01511741900613228</v>
+        <v>0.003952301548939959</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.07171541981980468</v>
+        <v>0.01800022789857774</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06464142304499521</v>
+        <v>0.007936206233269311</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.001645772473615998</v>
+        <v>0.03308595785965093</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01726626381700044</v>
+        <v>0.0002402439994130302</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001564794968858727</v>
+        <v>0.02537649549822844</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001917632203405192</v>
+        <v>0.01295406464216682</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.004158355891010794</v>
+        <v>0.1171005541323817</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00865029122303705</v>
+        <v>0.05122352959761051</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02406188420797776</v>
+        <v>0.2271649361428459</v>
       </c>
     </row>
   </sheetData>
